--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2800910.564159175</v>
+        <v>2796855.639779674</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7702688.870999604</v>
+        <v>7699738.974047509</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.573168699769</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -716,10 +716,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956586</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>74.86702424530591</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21.24059023833877</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159196</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>15.86255374652427</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>243.816668562499</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>83.84708725779312</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794598</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>74.86889081808245</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.2540412271705</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.0175430895177</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>67.83872679650106</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>165.6158245190445</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384598</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>81.61838887131783</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.482381017325</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,7 +1622,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>42.96247126414336</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>56.49943888151677</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799145</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135901</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277547</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541635</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
         <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325497</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325497</v>
@@ -2542,7 +2542,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453478</v>
+        <v>20.92391191189579</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443491</v>
+        <v>48.81858568179591</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548314</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623487</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046323</v>
+        <v>67.32610467782423</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074564</v>
+        <v>52.47323292810664</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258536</v>
+        <v>38.04694813994637</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546448</v>
+        <v>37.97339019282548</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523174</v>
+        <v>39.72284161259275</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762388</v>
+        <v>50.54167953498488</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419592</v>
+        <v>37.89393170155692</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536785</v>
+        <v>15.73364728272885</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982377</v>
+        <v>6.632145647184771</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535109</v>
+        <v>84.75808915271209</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.28971790082</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.851106744959</v>
       </c>
     </row>
     <row r="35">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>1.098310803922018</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822795</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>83.73065383658636</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.8890990341564</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443881</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627853</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915765</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892491</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131705</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788909</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906102</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351694</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
@@ -3961,7 +3961,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3980,7 +3980,7 @@
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.58521707214943</v>
       </c>
       <c r="E44" t="n">
         <v>302.090850164389</v>
@@ -3992,7 +3992,7 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>67.06582081829538</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
@@ -4034,7 +4034,7 @@
         <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
         <v>270.8222052111635</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415637</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443878</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627851</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915762</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892489</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131702</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788906</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906099</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351691</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.98906130239</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.98906130239</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490357</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703879</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703879</v>
+        <v>46.56170315639559</v>
       </c>
       <c r="K2" t="n">
-        <v>42.49073853703879</v>
+        <v>405.5440591838574</v>
       </c>
       <c r="L2" t="n">
-        <v>535.8110302555676</v>
+        <v>898.8643509023863</v>
       </c>
       <c r="M2" t="n">
-        <v>1061.633919651423</v>
+        <v>898.8643509023863</v>
       </c>
       <c r="N2" t="n">
-        <v>1587.456809047278</v>
+        <v>1400.031133897837</v>
       </c>
       <c r="O2" t="n">
-        <v>2027.496409939606</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851939</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851939</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S2" t="n">
-        <v>1958.02337179299</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1734.522769352407</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U2" t="n">
-        <v>1478.770039787005</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="V2" t="n">
-        <v>1478.770039787005</v>
+        <v>999.0496848552201</v>
       </c>
       <c r="W2" t="n">
-        <v>1478.770039787005</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1478.770039787005</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1478.770039787005</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163344</v>
+        <v>657.7430775364705</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764266</v>
+        <v>507.0888470965627</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979069</v>
+        <v>376.9998797180431</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087946</v>
+        <v>240.5533888289308</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019192643</v>
+        <v>116.1215827120626</v>
       </c>
       <c r="G3" t="n">
-        <v>63.94588019192643</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="H3" t="n">
-        <v>63.94588019192643</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703879</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>526.056824435352</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M3" t="n">
-        <v>847.8286633102128</v>
+        <v>861.4042549562994</v>
       </c>
       <c r="N3" t="n">
-        <v>1373.651552706068</v>
+        <v>883.7630516643752</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297049</v>
+        <v>1384.929834659826</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.10224989849</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031777</v>
+        <v>1026.364372110952</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817884</v>
+        <v>837.0572944609632</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572957</v>
+        <v>657.7430775364705</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>693.8346572994286</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>523.6295393654178</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="D4" t="n">
-        <v>523.6295393654178</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="E4" t="n">
-        <v>368.0707272246203</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7447924375932</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252033</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>927.9149795164456</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>693.8346572994286</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.8346572994286</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1557.528626081593</v>
+        <v>551.2091433733617</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.353124584524</v>
+        <v>551.2091433733617</v>
       </c>
       <c r="D5" t="n">
-        <v>1164.353124584524</v>
+        <v>551.2091433733617</v>
       </c>
       <c r="E5" t="n">
-        <v>1164.353124584524</v>
+        <v>551.2091433733617</v>
       </c>
       <c r="F5" t="n">
-        <v>918.0736613900801</v>
+        <v>538.3551089437435</v>
       </c>
       <c r="G5" t="n">
-        <v>504.9109058780833</v>
+        <v>125.1923534317467</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J5" t="n">
-        <v>99.8184948954306</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>99.8184948954306</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>99.8184948954306</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>625.6413842912856</v>
+        <v>1051.843641766315</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687141</v>
+        <v>1051.843641766315</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579469</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851939</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.02337179299</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.02337179299</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.02337179299</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="V5" t="n">
-        <v>1958.02337179299</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.02337179299</v>
+        <v>1341.156494151702</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.02337179299</v>
+        <v>951.7038890847585</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.02337179299</v>
+        <v>951.7038890847585</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622223</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223145</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437948</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>318.8743002546826</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378144</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620967882</v>
       </c>
       <c r="H6" t="n">
-        <v>91.8779925251272</v>
+        <v>74.38267620967882</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703879</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703879</v>
+        <v>473.3524541805761</v>
       </c>
       <c r="L6" t="n">
-        <v>526.056824435352</v>
+        <v>521.4159459447617</v>
       </c>
       <c r="M6" t="n">
-        <v>968.0301839896703</v>
+        <v>1022.582728940212</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896703</v>
+        <v>1523.749511935663</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580651</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297049</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S6" t="n">
-        <v>2100.619883750004</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327676</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031837</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.9089619988272</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="C7" t="n">
-        <v>158.9089619988272</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="D7" t="n">
-        <v>158.9089619988272</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="E7" t="n">
-        <v>158.9089619988272</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="F7" t="n">
-        <v>158.9089619988272</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862228</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="U7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="V7" t="n">
-        <v>442.2393640676496</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="W7" t="n">
-        <v>158.9089619988272</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="X7" t="n">
-        <v>158.9089619988272</v>
+        <v>225.7063445899236</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.9089619988272</v>
+        <v>225.7063445899236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1741.6531569252</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.47765542813</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.147902636597</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2142.147902636597</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>2142.147902636597</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>2142.147902636597</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>374.4427628648862</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>858.0088487631995</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>781.4712810076976</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1598.67307041405</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.438250204169</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708025</v>
+        <v>731.4357765463909</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117581</v>
+        <v>656.6116896536172</v>
       </c>
       <c r="F11" t="n">
-        <v>380.341201928924</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="G11" t="n">
+        <v>334.6579324707833</v>
+      </c>
+      <c r="H11" t="n">
+        <v>105.5155633244623</v>
+      </c>
+      <c r="I11" t="n">
         <v>62.11912770411553</v>
       </c>
-      <c r="H11" t="n">
-        <v>62.11912770411553</v>
-      </c>
-      <c r="I11" t="n">
-        <v>62.11912770411573</v>
-      </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3023.513568164041</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3023.513568164041</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2776.347440154748</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2500.289086410224</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.777162630469</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.227134838259</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5127,13 +5127,13 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,22 +5197,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469765</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5230,7 +5230,7 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
@@ -5239,10 +5239,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>3048.886244921416</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2772.827891176892</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.765939604926</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7913173233209</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.56928853388</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5419,7 +5419,7 @@
         <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
         <v>234.1241141445331</v>
@@ -5446,13 +5446,13 @@
         <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5461,7 +5461,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,10 +5473,10 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
         <v>583.3517043592133</v>
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>830.5413617456916</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364861</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102859</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567324</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879416</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924237</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5783,7 +5783,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5832,13 +5832,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F22" t="n">
         <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,16 +5917,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343037</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879416</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296496</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.202162476279</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,25 +6011,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364861</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102859</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485499</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797591</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214671</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424154</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218613</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390266</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142182</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1925.441780118093</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2546.304425485128</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379501</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875813</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476735</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691539</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,22 +6294,22 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350378</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672777</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278174</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6321,19 +6321,19 @@
         <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368296</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.783350821251</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.85267372112</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920028</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103024</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528543</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6361,49 +6361,49 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
         <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6601,64 +6601,64 @@
         <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.755098887807</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879683</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286451</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
         <v>722.7688154988165</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144925</v>
+        <v>890.2201666674341</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423743</v>
+        <v>590.5275805474765</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855444</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267653</v>
+        <v>87.68547930209944</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1165.756364896306</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1711.757264940887</v>
       </c>
       <c r="N32" t="n">
-        <v>2139.307231719907</v>
+        <v>2239.568548578349</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690205</v>
+        <v>2794.477684958976</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462112</v>
+        <v>3142.665177090498</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243447</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491227</v>
+        <v>3278.199034522562</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448548</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281051</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304544</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452719</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>871.8478593435851</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590201</v>
+        <v>341.6872565554794</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229134</v>
+        <v>288.6839909715333</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233322</v>
+        <v>250.2527302241127</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804388</v>
+        <v>211.8957704333799</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913158</v>
+        <v>171.7716879964175</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459277</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806348</v>
+        <v>82.44278775748637</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259937</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359356</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>393.2220734097353</v>
+        <v>427.382431216669</v>
       </c>
       <c r="M34" t="n">
-        <v>579.5136517479993</v>
+        <v>728.5435450432315</v>
       </c>
       <c r="N34" t="n">
-        <v>821.1101792828001</v>
+        <v>911.7331790744406</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964894</v>
+        <v>1189.307481604447</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381858</v>
+        <v>1323.033455149258</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.455651519309</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.25436700323</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552863</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209173</v>
+        <v>947.388144144829</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279011</v>
+        <v>798.6106513157179</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569827</v>
+        <v>632.4821015969601</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378699</v>
+        <v>515.6036317300079</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524173</v>
+        <v>409.693422896716</v>
       </c>
     </row>
     <row r="35">
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -7020,13 +7020,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>1634.317313094942</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7096,19 +7096,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7181,10 +7181,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,7 +7193,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
         <v>3105.956385205777</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7324,31 +7324,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1853.707880260104</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753168</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.973753959969</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666465</v>
+        <v>738.1896826232703</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867574</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648937</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
         <v>103.0149926215175</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>3021.379967189023</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2747.822184147443</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X41" t="n">
-        <v>2455.810831070633</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>2156.761373981368</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7546,37 +7546,37 @@
         <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906088</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832567</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325924</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
         <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690444</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016743975</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529118</v>
+        <v>245.5691623529112</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022411</v>
+        <v>505.1989733022405</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160347</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N43" t="n">
         <v>1065.684527822773</v>
@@ -7606,7 +7606,7 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557616</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
         <v>689.0179479288779</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1653.913470251139</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1358.179220744203</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1070.179343951005</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>765.0370710576822</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>445.5838845777929</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>129.8623810559291</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2821.585557180058</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2821.585557180058</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2548.027774138479</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2256.016421061669</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>1956.966963972403</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344861</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690441</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,22 +7807,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
         <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160337</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.89146594001</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237699</v>
@@ -7843,13 +7843,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557613</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288777</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356542</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>123.8044614350464</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.859283310712</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.252723050769</v>
+        <v>655.3475650705626</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>248.3221713947972</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4091815188683</v>
+        <v>598.6161957820904</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671515</v>
+        <v>107.9567559936372</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216674</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>175.5866625467823</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.859283310712</v>
+        <v>164.2633295905293</v>
       </c>
       <c r="N5" t="n">
-        <v>680.252723050769</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>138.6093284369037</v>
       </c>
       <c r="M6" t="n">
-        <v>538.8248589728656</v>
+        <v>598.6161957820904</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869451</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216674</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>305.7735116400153</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,7 +8775,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8784,7 +8784,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>690.2992872583815</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,13 +9954,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,16 +10425,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046929</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10668,16 +10668,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,22 +11373,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364584</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414353</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404346</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>45.65593307054316</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385749</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>188.1950278476836</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.021567221345</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812808</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>158.4882478966986</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531176</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>157.309559640647</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822793</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812805</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666719.4011087925</v>
+        <v>665215.5320743917</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666719.4011087925</v>
+        <v>665215.5320743917</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>640740.2820837938</v>
+        <v>640740.2820837937</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643252.7329981484</v>
+        <v>643252.7329981483</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>643252.7329981484</v>
+        <v>643252.7329981483</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649195.8411360844</v>
+        <v>649195.8411360845</v>
       </c>
       <c r="C2" t="n">
-        <v>649195.8411360844</v>
+        <v>649195.8411360843</v>
       </c>
       <c r="D2" t="n">
         <v>649195.8411360842</v>
@@ -26323,25 +26323,25 @@
         <v>610114.0416596583</v>
       </c>
       <c r="F2" t="n">
-        <v>610114.0416596582</v>
+        <v>610114.0416596583</v>
       </c>
       <c r="G2" t="n">
-        <v>649195.8411360858</v>
+        <v>649195.8411360857</v>
       </c>
       <c r="H2" t="n">
-        <v>649195.8411360858</v>
+        <v>649195.8411360857</v>
       </c>
       <c r="I2" t="n">
-        <v>649195.8411360857</v>
+        <v>649195.8411360859</v>
       </c>
       <c r="J2" t="n">
-        <v>649195.8411360853</v>
+        <v>649195.8411360852</v>
       </c>
       <c r="K2" t="n">
-        <v>649195.8411360853</v>
+        <v>649195.8411360852</v>
       </c>
       <c r="L2" t="n">
-        <v>649195.8411360858</v>
+        <v>649195.8411360855</v>
       </c>
       <c r="M2" t="n">
         <v>649195.8411360856</v>
@@ -26350,10 +26350,10 @@
         <v>649195.8411360858</v>
       </c>
       <c r="O2" t="n">
-        <v>612774.283804268</v>
+        <v>612774.2838042683</v>
       </c>
       <c r="P2" t="n">
-        <v>612774.2838042685</v>
+        <v>612774.2838042682</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343506</v>
+        <v>169649.0058765499</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602665</v>
+        <v>26460.41160941814</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301441</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670128</v>
+        <v>46725.8033548124</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436851</v>
+        <v>43782.97194555668</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015674</v>
+        <v>18983.5598301568</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224181.5440797612</v>
+        <v>229389.8493215836</v>
       </c>
       <c r="C4" t="n">
-        <v>224181.5440797612</v>
+        <v>229389.8493215836</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26430,13 +26430,13 @@
         <v>161760.5563326216</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,13 +26445,13 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186792.5147858255</v>
+        <v>186659.1201767708</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
         <v>163435.172231613</v>
@@ -26467,43 +26467,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391952</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.6753058834</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
         <v>55320.40778255072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181098.4386338231</v>
+        <v>185750.6582549981</v>
       </c>
       <c r="C6" t="n">
-        <v>359093.7357681737</v>
+        <v>355399.6641315478</v>
       </c>
       <c r="D6" t="n">
-        <v>349310.366168094</v>
+        <v>341574.0769447025</v>
       </c>
       <c r="E6" t="n">
-        <v>262788.2646804154</v>
+        <v>262679.7041263143</v>
       </c>
       <c r="F6" t="n">
-        <v>393241.1958181275</v>
+        <v>393132.6352640264</v>
       </c>
       <c r="G6" t="n">
         <v>375566.2389714482</v>
       </c>
       <c r="H6" t="n">
-        <v>404661.1948444626</v>
+        <v>404661.1948444625</v>
       </c>
       <c r="I6" t="n">
-        <v>404661.1948444625</v>
+        <v>404661.1948444627</v>
       </c>
       <c r="J6" t="n">
-        <v>176575.5514947126</v>
+        <v>183091.8366492856</v>
       </c>
       <c r="K6" t="n">
-        <v>398421.4264416792</v>
+        <v>398421.4264416791</v>
       </c>
       <c r="L6" t="n">
-        <v>359527.0795090913</v>
+        <v>355478.2422986188</v>
       </c>
       <c r="M6" t="n">
-        <v>361929.9179100938</v>
+        <v>360878.2228989057</v>
       </c>
       <c r="N6" t="n">
         <v>404661.1948444626</v>
       </c>
       <c r="O6" t="n">
-        <v>375035.1439599476</v>
+        <v>374933.9729673594</v>
       </c>
       <c r="P6" t="n">
-        <v>394018.7037901048</v>
+        <v>393917.5327975161</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,19 +26811,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443785</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880681</v>
+        <v>831.8776843078617</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126801</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304846</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.9637917208766</v>
+        <v>58.4072541935155</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165935</v>
+        <v>14.33013548902041</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769593</v>
+        <v>23.729449787696</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631023</v>
+        <v>85.18305253651658</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559193</v>
+        <v>646.8007142757127</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.783224045525</v>
+        <v>129.6883820257314</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126801</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304846</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631023</v>
+        <v>85.18305253651658</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.9166295545139</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857368</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>43.99219550354829</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>27.65279120986875</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>264.6345443016099</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>168.908825522823</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>236.9951326713811</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026154</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>100.3450828649982</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27786,7 +27786,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>51.31747213437836</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27825,7 +27825,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393046</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>313.7479906989979</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>66.12369447580221</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28521,7 +28521,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="P16" t="n">
         <v>93.99127447431646</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634527813</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28989,43 +28989,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634527813</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634527857</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733193</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668767</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082765</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901363</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>103.2865954513725</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>26.78466270501929</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.586371353925</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>109.586371353925</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="N34" t="n">
-        <v>58.99686212483996</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P34" t="n">
-        <v>109.586371353925</v>
+        <v>13.98970481639643</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,10 +30180,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634529035</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30402,11 +30402,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023186</v>
+        <v>36.24905561693101</v>
       </c>
       <c r="K43" t="n">
-        <v>36.24905561693164</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M46" t="n">
-        <v>36.2490556169306</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023189</v>
+        <v>36.24905561693103</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.124623492700321</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129848</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>98.02072415387198</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>325.0220594695564</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129848</v>
+        <v>22.58464313947054</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>57.90682460443618</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129848</v>
+        <v>14.53827799280203</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129848</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>48.54898157998544</v>
       </c>
       <c r="M6" t="n">
-        <v>446.4377369235538</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327785</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>216.176576306682</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35504,7 +35504,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35583,10 +35583,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9121652090696</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35817,7 +35817,7 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113952</v>
       </c>
       <c r="P16" t="n">
         <v>215.0783106122746</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K19" t="n">
         <v>213.0216270023944</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873198</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36285,19 +36285,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873198</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.09276664468034</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816465</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634527716</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101047</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700728</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039237</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>601.5899204195834</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>471.2691080508056</v>
+        <v>560.5142791723504</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605127</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649841</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659175</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.145010255381</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>281.815328648584</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>304.203145279356</v>
       </c>
       <c r="N34" t="n">
-        <v>244.0368964997988</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918832</v>
+        <v>135.0767409543546</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640775</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,10 +37476,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716079</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>200.0587396437669</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>6.174568144771941</v>
       </c>
       <c r="K43" t="n">
-        <v>118.9107133037416</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
@@ -37956,7 +37956,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038434</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807283</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38181,19 +38181,19 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>224.4223670697226</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918898</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038437</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
